--- a/modules/SB_R.xlsx
+++ b/modules/SB_R.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26205"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanderbilt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanderbilt\Desktop\Vanderbilt\2023 T1 - Spring\8200 - Data Science\Github\LLO8200_updated\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F936E7-D669-4147-9333-1A1665BC8BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E556036-2ACF-42E2-8DF6-887ACF6D67A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>Kansas City Chiefs</t>
   </si>
   <si>
-    <t>33:13:00</t>
-  </si>
-  <si>
     <t>Miami Gardens</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>New England Patriots</t>
   </si>
   <si>
-    <t>33:10:00</t>
-  </si>
-  <si>
     <t>Atlanta</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>Philadelphia Eagles</t>
   </si>
   <si>
-    <t>34:04:00</t>
-  </si>
-  <si>
     <t>Minneapolis</t>
   </si>
   <si>
@@ -167,9 +158,6 @@
     <t>Heads</t>
   </si>
   <si>
-    <t>40:31:00</t>
-  </si>
-  <si>
     <t>Houston</t>
   </si>
   <si>
@@ -182,9 +170,6 @@
     <t>Denver Broncos</t>
   </si>
   <si>
-    <t>27:13:00</t>
-  </si>
-  <si>
     <t>Santa Clara</t>
   </si>
   <si>
@@ -194,9 +179,6 @@
     <t>Carolina Panthers</t>
   </si>
   <si>
-    <t>33:46:00</t>
-  </si>
-  <si>
     <t>Glendale</t>
   </si>
   <si>
@@ -206,9 +188,6 @@
     <t>Seattle Seahawks</t>
   </si>
   <si>
-    <t>31:53:00</t>
-  </si>
-  <si>
     <t>East Rutherford</t>
   </si>
   <si>
@@ -218,9 +197,6 @@
     <t>Baltimore Ravens</t>
   </si>
   <si>
-    <t>32:23:00</t>
-  </si>
-  <si>
     <t>New Orleans</t>
   </si>
   <si>
@@ -230,9 +206,6 @@
     <t>New York Giants</t>
   </si>
   <si>
-    <t>37:05:00</t>
-  </si>
-  <si>
     <t>Indianapolis</t>
   </si>
   <si>
@@ -242,78 +215,45 @@
     <t>Green Bay Packers</t>
   </si>
   <si>
-    <t>26:35:00</t>
-  </si>
-  <si>
     <t>Arlington</t>
   </si>
   <si>
     <t>New Orleans Saints</t>
   </si>
   <si>
-    <t>30:11:00</t>
-  </si>
-  <si>
     <t>Pittsburgh Steelers</t>
   </si>
   <si>
-    <t>33:01:00</t>
-  </si>
-  <si>
     <t>Tampa</t>
   </si>
   <si>
     <t>Arizona Cardinals</t>
   </si>
   <si>
-    <t>30:27:00</t>
-  </si>
-  <si>
     <t>Indianapolis Colts</t>
   </si>
   <si>
-    <t>38:04:00</t>
-  </si>
-  <si>
     <t>Chicago Bears</t>
   </si>
   <si>
-    <t>26:58:00</t>
-  </si>
-  <si>
     <t>Detroit</t>
   </si>
   <si>
     <t>Michigan</t>
   </si>
   <si>
-    <t>31:37:00</t>
-  </si>
-  <si>
     <t>Jacksonville</t>
   </si>
   <si>
-    <t>38:58:00</t>
-  </si>
-  <si>
     <t>Tampa Bay Buccaneers</t>
   </si>
   <si>
-    <t>37:14:00</t>
-  </si>
-  <si>
     <t>San Diego</t>
   </si>
   <si>
-    <t>26:30:00</t>
-  </si>
-  <si>
     <t>St. Louis Rams</t>
   </si>
   <si>
-    <t>34:06:00</t>
-  </si>
-  <si>
     <t>23:34</t>
   </si>
   <si>
@@ -323,9 +263,6 @@
     <t>Tempe</t>
   </si>
   <si>
-    <t>34:29:00</t>
-  </si>
-  <si>
     <t>Pasadena</t>
   </si>
   <si>
@@ -335,36 +272,12 @@
     <t>Washington Redskins</t>
   </si>
   <si>
-    <t>40:33:00</t>
-  </si>
-  <si>
-    <t>39:31:00</t>
-  </si>
-  <si>
-    <t>27:17:00</t>
-  </si>
-  <si>
-    <t>24:45:00</t>
-  </si>
-  <si>
-    <t>34:39:00</t>
-  </si>
-  <si>
-    <t>39:15:00</t>
-  </si>
-  <si>
-    <t>37:11:00</t>
-  </si>
-  <si>
     <t>Palo Alto</t>
   </si>
   <si>
     <t>Los Angeles Raiders</t>
   </si>
   <si>
-    <t>29:22:00</t>
-  </si>
-  <si>
     <t>Miami Dolphins</t>
   </si>
   <si>
@@ -389,103 +302,190 @@
     <t>New York Jets</t>
   </si>
   <si>
-    <t>26:47:00</t>
-  </si>
-  <si>
-    <t>26:50:00</t>
-  </si>
-  <si>
-    <t>25:56:00</t>
-  </si>
-  <si>
-    <t>23:27:00</t>
-  </si>
-  <si>
-    <t>32:47:00</t>
-  </si>
-  <si>
-    <t>26:14:00</t>
-  </si>
-  <si>
-    <t>28:07:00</t>
-  </si>
-  <si>
-    <t>27:37:00</t>
-  </si>
-  <si>
-    <t>22:55:00</t>
-  </si>
-  <si>
-    <t>33:25:00</t>
-  </si>
-  <si>
-    <t>29:49:00</t>
-  </si>
-  <si>
-    <t>26:59:00</t>
-  </si>
-  <si>
-    <t>29:33:00</t>
-  </si>
-  <si>
-    <t>21:56:00</t>
-  </si>
-  <si>
-    <t>33:02:00</t>
-  </si>
-  <si>
-    <t>28:23:00</t>
-  </si>
-  <si>
-    <t>21:02:00</t>
-  </si>
-  <si>
-    <t>22:46:00</t>
-  </si>
-  <si>
-    <t>33:30:00</t>
-  </si>
-  <si>
-    <t>25:54:00</t>
-  </si>
-  <si>
     <t>Tennessee Titans</t>
   </si>
   <si>
-    <t>36:26:00</t>
-  </si>
-  <si>
     <t>San Diego Chargers</t>
   </si>
   <si>
-    <t>25:31:00</t>
-  </si>
-  <si>
-    <t>19:27:00</t>
-  </si>
-  <si>
-    <t>20:29:00</t>
-  </si>
-  <si>
     <t>Cincinnati Bengals</t>
   </si>
   <si>
-    <t>32:43:00</t>
-  </si>
-  <si>
-    <t>35:15:00</t>
-  </si>
-  <si>
-    <t>25:21:00</t>
-  </si>
-  <si>
-    <t>20:45:00</t>
-  </si>
-  <si>
-    <t>22:49:00</t>
-  </si>
-  <si>
-    <t>30:38:00</t>
+    <t>33:13</t>
+  </si>
+  <si>
+    <t>33:10</t>
+  </si>
+  <si>
+    <t>34:04</t>
+  </si>
+  <si>
+    <t>40:31</t>
+  </si>
+  <si>
+    <t>27:13</t>
+  </si>
+  <si>
+    <t>33:46</t>
+  </si>
+  <si>
+    <t>31:53</t>
+  </si>
+  <si>
+    <t>32:23</t>
+  </si>
+  <si>
+    <t>37:05</t>
+  </si>
+  <si>
+    <t>26:35</t>
+  </si>
+  <si>
+    <t>30:11</t>
+  </si>
+  <si>
+    <t>33:01</t>
+  </si>
+  <si>
+    <t>30:27</t>
+  </si>
+  <si>
+    <t>38:04</t>
+  </si>
+  <si>
+    <t>26:58</t>
+  </si>
+  <si>
+    <t>31:37</t>
+  </si>
+  <si>
+    <t>38:58</t>
+  </si>
+  <si>
+    <t>37:14</t>
+  </si>
+  <si>
+    <t>26:30</t>
+  </si>
+  <si>
+    <t>34:06</t>
+  </si>
+  <si>
+    <t>34:29</t>
+  </si>
+  <si>
+    <t>40:33</t>
+  </si>
+  <si>
+    <t>39:31</t>
+  </si>
+  <si>
+    <t>27:17</t>
+  </si>
+  <si>
+    <t>24:45</t>
+  </si>
+  <si>
+    <t>34:39</t>
+  </si>
+  <si>
+    <t>39:15</t>
+  </si>
+  <si>
+    <t>37:11</t>
+  </si>
+  <si>
+    <t>29:22</t>
+  </si>
+  <si>
+    <t>26:47</t>
+  </si>
+  <si>
+    <t>26:50</t>
+  </si>
+  <si>
+    <t>25:56</t>
+  </si>
+  <si>
+    <t>23:27</t>
+  </si>
+  <si>
+    <t>32:47</t>
+  </si>
+  <si>
+    <t>26:14</t>
+  </si>
+  <si>
+    <t>28:07</t>
+  </si>
+  <si>
+    <t>27:37</t>
+  </si>
+  <si>
+    <t>22:55</t>
+  </si>
+  <si>
+    <t>33:25</t>
+  </si>
+  <si>
+    <t>29:49</t>
+  </si>
+  <si>
+    <t>26:59</t>
+  </si>
+  <si>
+    <t>29:33</t>
+  </si>
+  <si>
+    <t>21:56</t>
+  </si>
+  <si>
+    <t>33:02</t>
+  </si>
+  <si>
+    <t>28:23</t>
+  </si>
+  <si>
+    <t>21:02</t>
+  </si>
+  <si>
+    <t>22:46</t>
+  </si>
+  <si>
+    <t>33:30</t>
+  </si>
+  <si>
+    <t>25:54</t>
+  </si>
+  <si>
+    <t>36:26</t>
+  </si>
+  <si>
+    <t>25:31</t>
+  </si>
+  <si>
+    <t>25:21</t>
+  </si>
+  <si>
+    <t>19:27</t>
+  </si>
+  <si>
+    <t>20:29</t>
+  </si>
+  <si>
+    <t>32:43</t>
+  </si>
+  <si>
+    <t>35:15</t>
+  </si>
+  <si>
+    <t>20:45</t>
+  </si>
+  <si>
+    <t>22:49</t>
+  </si>
+  <si>
+    <t>30:38</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,11 +835,11 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AG112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="P71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R115" sqref="R115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -881,18 +881,18 @@
     <col min="39" max="39" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -966,7 +966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43863</v>
       </c>
@@ -1019,29 +1019,29 @@
         <v>397</v>
       </c>
       <c r="R5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
         <v>27</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>28</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>29</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5">
+        <f t="shared" ref="W5:W36" si="0">IF(X5=C5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
         <v>30</v>
       </c>
-      <c r="W5">
-        <f>IF(X5=C5,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43499</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1095,38 +1095,38 @@
         <v>407</v>
       </c>
       <c r="R6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" t="s">
         <v>33</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
         <v>34</v>
       </c>
-      <c r="U6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V6" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6">
-        <f>IF(X6=C6,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43135</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B58" si="0">B6-1</f>
+        <f t="shared" ref="B7:B58" si="1">B6-1</f>
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1171,38 +1171,38 @@
         <v>538</v>
       </c>
       <c r="R7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" t="s">
         <v>38</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V7" t="s">
-        <v>41</v>
-      </c>
       <c r="W7">
-        <f>IF(X7=C7,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>42771</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1247,38 +1247,38 @@
         <v>546</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W8">
-        <f>IF(X8=C8,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>42407</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1323,38 +1323,38 @@
         <v>194</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="U9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W9">
-        <f>IF(X9=C9,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>42036</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1399,38 +1399,38 @@
         <v>377</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="U10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W10">
-        <f>IF(X10=C10,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>41672</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1475,38 +1475,38 @@
         <v>341</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="U11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="V11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W11">
-        <f>IF(X11=C11,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>41308</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1551,38 +1551,38 @@
         <v>367</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W12">
-        <f>IF(X12=C12,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>40944</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1627,38 +1627,38 @@
         <v>396</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="U13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="V13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W13">
-        <f>IF(X13=C13,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>40580</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1703,38 +1703,38 @@
         <v>338</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W14">
-        <f>IF(X14=C14,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>40216</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1779,38 +1779,38 @@
         <v>332</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" t="s">
         <v>28</v>
       </c>
-      <c r="U15" t="s">
-        <v>29</v>
-      </c>
       <c r="V15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W15">
-        <f>IF(X15=C15,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>39845</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1855,38 +1855,38 @@
         <v>292</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="U16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W16">
-        <f>IF(X16=C16,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>39481</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1931,38 +1931,38 @@
         <v>338</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="U17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W17">
-        <f>IF(X17=C17,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>39117</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2007,38 +2007,38 @@
         <v>430</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
         <v>28</v>
       </c>
-      <c r="U18" t="s">
-        <v>29</v>
-      </c>
       <c r="V18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W18">
-        <f>IF(X18=C18,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>38753</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2083,38 +2083,38 @@
         <v>339</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="U19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="V19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W19">
-        <f>IF(X19=C19,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>38389</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2159,38 +2159,38 @@
         <v>331</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="U20" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" t="s">
         <v>29</v>
       </c>
-      <c r="V20" t="s">
-        <v>30</v>
-      </c>
       <c r="W20">
-        <f>IF(X20=C20,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>38018</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2235,38 +2235,38 @@
         <v>481</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W21">
-        <f>IF(X21=C21,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>37647</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2311,38 +2311,38 @@
         <v>365</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="U22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W22">
-        <f>IF(X22=C22,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>37290</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2387,38 +2387,38 @@
         <v>267</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W23">
-        <f>IF(X23=C23,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>36919</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2463,38 +2463,38 @@
         <v>244</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="U24" t="s">
+        <v>28</v>
+      </c>
+      <c r="V24" t="s">
         <v>29</v>
       </c>
-      <c r="V24" t="s">
-        <v>30</v>
-      </c>
       <c r="W24">
-        <f>IF(X24=C24,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>36555</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2539,38 +2539,38 @@
         <v>436</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="S25">
         <v>1</v>
       </c>
       <c r="T25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W25">
-        <f>IF(X25=C25,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>36191</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2618,32 +2618,32 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" t="s">
         <v>28</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>29</v>
       </c>
-      <c r="V26" t="s">
-        <v>30</v>
-      </c>
       <c r="W26">
-        <f>IF(X26=C26,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>35820</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2691,32 +2691,32 @@
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="U27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W27">
-        <f>IF(X27=C27,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>35456</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2764,32 +2764,32 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U28" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W28">
-        <f>IF(X28=C28,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>35092</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2837,32 +2837,32 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W29">
-        <f>IF(X29=C29,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>34728</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2910,32 +2910,32 @@
         <v>1</v>
       </c>
       <c r="T30" t="s">
+        <v>27</v>
+      </c>
+      <c r="U30" t="s">
         <v>28</v>
       </c>
-      <c r="U30" t="s">
-        <v>29</v>
-      </c>
       <c r="V30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W30">
-        <f>IF(X30=C30,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>34364</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2980,38 +2980,38 @@
         <v>341</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="S31">
         <v>1</v>
       </c>
       <c r="T31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W31">
-        <f>IF(X31=C31,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>34000</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3059,32 +3059,32 @@
         <v>1</v>
       </c>
       <c r="T32" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="U32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W32">
-        <f>IF(X32=C32,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>33629</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3132,32 +3132,32 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W33">
-        <f>IF(X33=C33,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33265</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3202,38 +3202,38 @@
         <v>386</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="U34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W34">
-        <f>IF(X34=C34,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>32901</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3278,38 +3278,38 @@
         <v>461</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="S35">
         <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W35">
-        <f>IF(X35=C35,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>32530</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3354,38 +3354,38 @@
         <v>452</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="S36">
         <v>1</v>
       </c>
       <c r="T36" t="s">
+        <v>27</v>
+      </c>
+      <c r="U36" t="s">
         <v>28</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>29</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X36" t="s">
         <v>30</v>
       </c>
-      <c r="W36">
-        <f>IF(X36=C36,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>32173</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3430,38 +3430,38 @@
         <v>602</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="U37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W37">
-        <f>IF(X37=C37,1,0)</f>
+        <f t="shared" ref="W37:W68" si="2">IF(X37=C37,1,0)</f>
         <v>1</v>
       </c>
       <c r="X37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>31802</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3506,38 +3506,38 @@
         <v>399</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="U38" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W38">
-        <f>IF(X38=C38,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>31438</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3582,38 +3582,38 @@
         <v>408</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="S39">
         <v>1</v>
       </c>
       <c r="T39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W39">
-        <f>IF(X39=C39,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>31067</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3658,38 +3658,38 @@
         <v>537</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="S40">
         <v>1</v>
       </c>
       <c r="T40" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X40" t="s">
         <v>30</v>
       </c>
-      <c r="W40">
-        <f>IF(X40=C40,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>30703</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3734,38 +3734,38 @@
         <v>385</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="S41">
         <v>1</v>
       </c>
       <c r="T41" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="U41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W41">
-        <f>IF(X41=C41,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>30346</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3813,32 +3813,32 @@
         <v>1</v>
       </c>
       <c r="T42" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W42">
-        <f>IF(X42=C42,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>29975</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3886,32 +3886,32 @@
         <v>1</v>
       </c>
       <c r="T43" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="U43" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="V43" t="s">
+        <v>29</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X43" t="s">
         <v>30</v>
       </c>
-      <c r="W43">
-        <f>IF(X43=C43,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>29611</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3959,32 +3959,32 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U44" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W44">
-        <f>IF(X44=C44,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>29240</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -4032,32 +4032,32 @@
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="U45" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V45" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W45">
-        <f>IF(X45=C45,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>28876</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4105,32 +4105,32 @@
         <v>1</v>
       </c>
       <c r="T46" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="U46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V46" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W46">
-        <f>IF(X46=C46,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>28505</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -4178,32 +4178,32 @@
         <v>1</v>
       </c>
       <c r="T47" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U47" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V47" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W47">
-        <f>IF(X47=C47,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>28134</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -4251,32 +4251,32 @@
         <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="U48" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W48">
-        <f>IF(X48=C48,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>27777</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -4324,32 +4324,32 @@
         <v>1</v>
       </c>
       <c r="T49" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="U49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W49">
-        <f>IF(X49=C49,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>27406</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -4397,32 +4397,32 @@
         <v>1</v>
       </c>
       <c r="T50" t="s">
+        <v>52</v>
+      </c>
+      <c r="U50" t="s">
+        <v>53</v>
+      </c>
+      <c r="V50" t="s">
+        <v>29</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X50" t="s">
         <v>60</v>
       </c>
-      <c r="U50" t="s">
-        <v>61</v>
-      </c>
-      <c r="V50" t="s">
-        <v>30</v>
-      </c>
-      <c r="W50">
-        <f>IF(X50=C50,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>27042</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -4470,32 +4470,32 @@
         <v>1</v>
       </c>
       <c r="T51" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U51" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W51">
-        <f>IF(X51=C51,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>26678</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -4543,32 +4543,32 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="U52" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W52">
-        <f>IF(X52=C52,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>26314</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -4616,32 +4616,32 @@
         <v>1</v>
       </c>
       <c r="T53" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U53" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W53">
-        <f>IF(X53=C53,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>25950</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -4689,28 +4689,28 @@
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="U54" t="s">
+        <v>28</v>
+      </c>
+      <c r="V54" t="s">
         <v>29</v>
       </c>
-      <c r="V54" t="s">
-        <v>30</v>
-      </c>
       <c r="W54">
-        <f>IF(X54=C54,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>25579</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C55" t="s">
@@ -4762,32 +4762,32 @@
         <v>1</v>
       </c>
       <c r="T55" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U55" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W55">
-        <f>IF(X55=C55,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>25215</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -4835,32 +4835,32 @@
         <v>1</v>
       </c>
       <c r="T56" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="U56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W56">
-        <f>IF(X56=C56,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>24851</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -4908,32 +4908,32 @@
         <v>1</v>
       </c>
       <c r="T57" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="U57" t="s">
+        <v>28</v>
+      </c>
+      <c r="V57" t="s">
         <v>29</v>
       </c>
-      <c r="V57" t="s">
-        <v>30</v>
-      </c>
       <c r="W57">
-        <f>IF(X57=C57,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>24487</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4981,23 +4981,23 @@
         <v>1</v>
       </c>
       <c r="T58" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="U58" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W58">
-        <f>IF(X58=C58,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X58" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43863</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5050,29 +5050,29 @@
         <v>351</v>
       </c>
       <c r="R59" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
       <c r="T59" t="s">
+        <v>27</v>
+      </c>
+      <c r="U59" t="s">
         <v>28</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>29</v>
       </c>
-      <c r="V59" t="s">
+      <c r="W59">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X59" t="s">
         <v>30</v>
       </c>
-      <c r="W59">
-        <f>IF(X59=C59,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43499</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -5126,38 +5126,38 @@
         <v>260</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60" t="s">
+        <v>32</v>
+      </c>
+      <c r="U60" t="s">
+        <v>33</v>
+      </c>
+      <c r="V60" t="s">
+        <v>29</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X60" t="s">
         <v>34</v>
       </c>
-      <c r="U60" t="s">
-        <v>35</v>
-      </c>
-      <c r="V60" t="s">
-        <v>30</v>
-      </c>
-      <c r="W60">
-        <f>IF(X60=C60,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43135</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:B112" si="1">B60-1</f>
+        <f t="shared" ref="B61:B112" si="3">B60-1</f>
         <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -5202,38 +5202,38 @@
         <v>613</v>
       </c>
       <c r="R61" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="S61">
         <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W61">
-        <f>IF(X61=C61,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X61" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>42771</v>
       </c>
       <c r="B62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -5278,39 +5278,39 @@
         <v>344</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S62">
         <v>0</v>
       </c>
       <c r="T62" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U62" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W62">
-        <f>IF(X62=C62,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X62" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA62" s="3"/>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>42407</v>
       </c>
       <c r="B63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -5355,38 +5355,38 @@
         <v>315</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="S63">
         <v>0</v>
       </c>
       <c r="T63" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="U63" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W63">
-        <f>IF(X63=C63,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>42036</v>
       </c>
       <c r="B64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -5431,38 +5431,38 @@
         <v>396</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S64">
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="U64" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W64">
-        <f>IF(X64=C64,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>41672</v>
       </c>
       <c r="B65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -5507,38 +5507,38 @@
         <v>306</v>
       </c>
       <c r="R65" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S65">
         <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="U65" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="V65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W65">
-        <f>IF(X65=C65,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>41308</v>
       </c>
       <c r="B66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -5583,38 +5583,38 @@
         <v>468</v>
       </c>
       <c r="R66" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S66">
         <v>0</v>
       </c>
       <c r="T66" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U66" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V66" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W66">
-        <f>IF(X66=C66,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>40944</v>
       </c>
       <c r="B67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -5659,38 +5659,38 @@
         <v>349</v>
       </c>
       <c r="R67" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="S67">
         <v>0</v>
       </c>
       <c r="T67" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="U67" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="V67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W67">
-        <f>IF(X67=C67,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X67" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>40580</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -5735,38 +5735,38 @@
         <v>387</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
       <c r="T68" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="U68" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V68" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W68">
-        <f>IF(X68=C68,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>40216</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -5811,38 +5811,38 @@
         <v>432</v>
       </c>
       <c r="R69" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69" t="s">
+        <v>27</v>
+      </c>
+      <c r="U69" t="s">
         <v>28</v>
       </c>
-      <c r="U69" t="s">
-        <v>29</v>
-      </c>
       <c r="V69" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W69">
-        <f>IF(X69=C69,1,0)</f>
+        <f t="shared" ref="W69:W100" si="4">IF(X69=C69,1,0)</f>
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>39845</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -5887,38 +5887,38 @@
         <v>407</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="U70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W70">
-        <f>IF(X70=C70,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>39481</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -5963,38 +5963,38 @@
         <v>274</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S71">
         <v>0</v>
       </c>
       <c r="T71" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="U71" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W71">
-        <f>IF(X71=C71,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>39117</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -6039,38 +6039,38 @@
         <v>265</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="S72">
         <v>0</v>
       </c>
       <c r="T72" t="s">
+        <v>27</v>
+      </c>
+      <c r="U72" t="s">
         <v>28</v>
       </c>
-      <c r="U72" t="s">
-        <v>29</v>
-      </c>
       <c r="V72" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W72">
-        <f>IF(X72=C72,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>38753</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -6115,38 +6115,38 @@
         <v>396</v>
       </c>
       <c r="R73" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
       <c r="T73" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="U73" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="V73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W73">
-        <f>IF(X73=C73,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X73" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>38389</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -6191,38 +6191,38 @@
         <v>369</v>
       </c>
       <c r="R74" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="S74">
         <v>0</v>
       </c>
       <c r="T74" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="U74" t="s">
+        <v>28</v>
+      </c>
+      <c r="V74" t="s">
         <v>29</v>
       </c>
-      <c r="V74" t="s">
-        <v>30</v>
-      </c>
       <c r="W74">
-        <f>IF(X74=C74,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X74" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>38018</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -6267,38 +6267,38 @@
         <v>387</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="S75">
         <v>0</v>
       </c>
       <c r="T75" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U75" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W75">
-        <f>IF(X75=C75,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>37647</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -6343,38 +6343,38 @@
         <v>269</v>
       </c>
       <c r="R76" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S76">
         <v>0</v>
       </c>
       <c r="T76" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="U76" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W76">
-        <f>IF(X76=C76,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X76" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>37290</v>
       </c>
       <c r="B77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -6419,38 +6419,38 @@
         <v>427</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="S77">
         <v>0</v>
       </c>
       <c r="T77" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U77" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V77" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W77">
-        <f>IF(X77=C77,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>36919</v>
       </c>
       <c r="B78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -6495,38 +6495,38 @@
         <v>152</v>
       </c>
       <c r="R78" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S78">
         <v>0</v>
       </c>
       <c r="T78" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="U78" t="s">
+        <v>28</v>
+      </c>
+      <c r="V78" t="s">
         <v>29</v>
       </c>
-      <c r="V78" t="s">
-        <v>30</v>
-      </c>
       <c r="W78">
-        <f>IF(X78=C78,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X78" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>36555</v>
       </c>
       <c r="B79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -6571,38 +6571,38 @@
         <v>367</v>
       </c>
       <c r="R79" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="S79">
         <v>0</v>
       </c>
       <c r="T79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W79">
-        <f>IF(X79=C79,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>36191</v>
       </c>
       <c r="B80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -6650,32 +6650,32 @@
         <v>0</v>
       </c>
       <c r="T80" t="s">
+        <v>27</v>
+      </c>
+      <c r="U80" t="s">
         <v>28</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>29</v>
       </c>
-      <c r="V80" t="s">
-        <v>30</v>
-      </c>
       <c r="W80">
-        <f>IF(X80=C80,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>35820</v>
       </c>
       <c r="B81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -6723,32 +6723,32 @@
         <v>0</v>
       </c>
       <c r="T81" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="U81" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W81">
-        <f>IF(X81=C81,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X81" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>35456</v>
       </c>
       <c r="B82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -6796,32 +6796,32 @@
         <v>0</v>
       </c>
       <c r="T82" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U82" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W82">
-        <f>IF(X82=C82,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X82" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>35092</v>
       </c>
       <c r="B83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -6869,32 +6869,32 @@
         <v>0</v>
       </c>
       <c r="T83" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="U83" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W83">
-        <f>IF(X83=C83,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>34728</v>
       </c>
       <c r="B84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C84" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -6942,32 +6942,32 @@
         <v>0</v>
       </c>
       <c r="T84" t="s">
+        <v>27</v>
+      </c>
+      <c r="U84" t="s">
         <v>28</v>
       </c>
-      <c r="U84" t="s">
-        <v>29</v>
-      </c>
       <c r="V84" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W84">
-        <f>IF(X84=C84,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X84" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>34364</v>
       </c>
       <c r="B85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -7012,38 +7012,38 @@
         <v>314</v>
       </c>
       <c r="R85" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S85">
         <v>0</v>
       </c>
       <c r="T85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W85">
-        <f>IF(X85=C85,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X85" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>34000</v>
       </c>
       <c r="B86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -7091,32 +7091,32 @@
         <v>0</v>
       </c>
       <c r="T86" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="U86" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V86" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W86">
-        <f>IF(X86=C86,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X86" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>33629</v>
       </c>
       <c r="B87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -7164,32 +7164,32 @@
         <v>0</v>
       </c>
       <c r="T87" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U87" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V87" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W87">
-        <f>IF(X87=C87,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X87" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>33265</v>
       </c>
       <c r="B88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -7234,38 +7234,38 @@
         <v>371</v>
       </c>
       <c r="R88" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="S88">
         <v>0</v>
       </c>
       <c r="T88" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="U88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V88" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W88">
-        <f>IF(X88=C88,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X88" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>32901</v>
       </c>
       <c r="B89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -7310,38 +7310,38 @@
         <v>167</v>
       </c>
       <c r="R89" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="S89">
         <v>0</v>
       </c>
       <c r="T89" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U89" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W89">
-        <f>IF(X89=C89,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X89" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>32530</v>
       </c>
       <c r="B90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -7386,38 +7386,38 @@
         <v>229</v>
       </c>
       <c r="R90" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S90">
         <v>0</v>
       </c>
       <c r="T90" t="s">
+        <v>27</v>
+      </c>
+      <c r="U90" t="s">
         <v>28</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>29</v>
       </c>
-      <c r="V90" t="s">
+      <c r="W90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X90" t="s">
         <v>30</v>
       </c>
-      <c r="W90">
-        <f>IF(X90=C90,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X90" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24">
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>32173</v>
       </c>
       <c r="B91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C91" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -7462,38 +7462,38 @@
         <v>327</v>
       </c>
       <c r="R91" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S91">
         <v>0</v>
       </c>
       <c r="T91" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="U91" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V91" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W91">
-        <f>IF(X91=C91,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>31802</v>
       </c>
       <c r="B92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -7538,38 +7538,38 @@
         <v>372</v>
       </c>
       <c r="R92" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="S92">
         <v>0</v>
       </c>
       <c r="T92" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="U92" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W92">
-        <f>IF(X92=C92,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X92" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>31438</v>
       </c>
       <c r="B93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -7620,32 +7620,32 @@
         <v>0</v>
       </c>
       <c r="T93" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U93" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W93">
-        <f>IF(X93=C93,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X93" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>31067</v>
       </c>
       <c r="B94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -7696,32 +7696,32 @@
         <v>0</v>
       </c>
       <c r="T94" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="U94" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V94" t="s">
+        <v>29</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X94" t="s">
         <v>30</v>
       </c>
-      <c r="W94">
-        <f>IF(X94=C94,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X94" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24">
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>30703</v>
       </c>
       <c r="B95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -7772,32 +7772,32 @@
         <v>0</v>
       </c>
       <c r="T95" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="U95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V95" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W95">
-        <f>IF(X95=C95,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>30346</v>
       </c>
       <c r="B96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -7845,32 +7845,32 @@
         <v>0</v>
       </c>
       <c r="T96" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="U96" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W96">
-        <f>IF(X96=C96,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>29975</v>
       </c>
       <c r="B97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -7918,32 +7918,32 @@
         <v>0</v>
       </c>
       <c r="T97" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="U97" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="V97" t="s">
+        <v>29</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X97" t="s">
         <v>30</v>
       </c>
-      <c r="W97">
-        <f>IF(X97=C97,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X97" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24">
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>29611</v>
       </c>
       <c r="B98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -7991,32 +7991,32 @@
         <v>0</v>
       </c>
       <c r="T98" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U98" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W98">
-        <f>IF(X98=C98,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X98" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>29240</v>
       </c>
       <c r="B99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -8064,32 +8064,32 @@
         <v>0</v>
       </c>
       <c r="T99" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="U99" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W99">
-        <f>IF(X99=C99,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X99" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>28876</v>
       </c>
       <c r="B100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -8137,32 +8137,32 @@
         <v>0</v>
       </c>
       <c r="T100" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="U100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V100" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W100">
-        <f>IF(X100=C100,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X100" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>28505</v>
       </c>
       <c r="B101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -8210,32 +8210,32 @@
         <v>0</v>
       </c>
       <c r="T101" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U101" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V101" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W101">
-        <f>IF(X101=C101,1,0)</f>
+        <f t="shared" ref="W101:W132" si="5">IF(X101=C101,1,0)</f>
         <v>0</v>
       </c>
       <c r="X101" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>28134</v>
       </c>
       <c r="B102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -8283,32 +8283,32 @@
         <v>0</v>
       </c>
       <c r="T102" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="U102" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W102">
-        <f>IF(X102=C102,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>27777</v>
       </c>
       <c r="B103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -8356,32 +8356,32 @@
         <v>0</v>
       </c>
       <c r="T103" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="U103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V103" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W103">
-        <f>IF(X103=C103,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X103" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>27406</v>
       </c>
       <c r="B104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -8429,32 +8429,32 @@
         <v>0</v>
       </c>
       <c r="T104" t="s">
+        <v>52</v>
+      </c>
+      <c r="U104" t="s">
+        <v>53</v>
+      </c>
+      <c r="V104" t="s">
+        <v>29</v>
+      </c>
+      <c r="W104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X104" t="s">
         <v>60</v>
       </c>
-      <c r="U104" t="s">
-        <v>61</v>
-      </c>
-      <c r="V104" t="s">
-        <v>30</v>
-      </c>
-      <c r="W104">
-        <f>IF(X104=C104,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X104" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24">
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>27042</v>
       </c>
       <c r="B105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -8502,32 +8502,32 @@
         <v>0</v>
       </c>
       <c r="T105" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U105" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V105" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W105">
-        <f>IF(X105=C105,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>26678</v>
       </c>
       <c r="B106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -8575,32 +8575,32 @@
         <v>0</v>
       </c>
       <c r="T106" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="U106" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V106" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W106">
-        <f>IF(X106=C106,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X106" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>26314</v>
       </c>
       <c r="B107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -8648,32 +8648,32 @@
         <v>0</v>
       </c>
       <c r="T107" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U107" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V107" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W107">
-        <f>IF(X107=C107,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X107" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>25950</v>
       </c>
       <c r="B108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -8721,32 +8721,32 @@
         <v>0</v>
       </c>
       <c r="T108" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="U108" t="s">
+        <v>28</v>
+      </c>
+      <c r="V108" t="s">
         <v>29</v>
       </c>
-      <c r="V108" t="s">
-        <v>30</v>
-      </c>
       <c r="W108">
-        <f>IF(X108=C108,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X108" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>25579</v>
       </c>
       <c r="B109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -8794,32 +8794,32 @@
         <v>0</v>
       </c>
       <c r="T109" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U109" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W109">
-        <f>IF(X109=C109,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X109" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>25215</v>
       </c>
       <c r="B110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -8867,32 +8867,32 @@
         <v>0</v>
       </c>
       <c r="T110" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="U110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V110" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W110">
-        <f>IF(X110=C110,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X110" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>24851</v>
       </c>
       <c r="B111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -8940,28 +8940,28 @@
         <v>0</v>
       </c>
       <c r="T111" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="U111" t="s">
+        <v>28</v>
+      </c>
+      <c r="V111" t="s">
         <v>29</v>
       </c>
-      <c r="V111" t="s">
-        <v>30</v>
-      </c>
       <c r="W111">
-        <f>IF(X111=C111,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>24487</v>
       </c>
       <c r="B112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C112" t="s">
@@ -9013,20 +9013,20 @@
         <v>0</v>
       </c>
       <c r="T112" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="U112" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V112" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W112">
-        <f>IF(X112=C112,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X112" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/modules/SB_R.xlsx
+++ b/modules/SB_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanderbilt\Desktop\Vanderbilt\2023 T1 - Spring\8200 - Data Science\Github\LLO8200_updated\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E556036-2ACF-42E2-8DF6-887ACF6D67A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5956190B-7A0F-4966-B245-FFA60D0BC927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,8 +835,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AG112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R115" sqref="R115"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1034,7 @@
         <v>29</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:W36" si="0">IF(X5=C5,1,0)</f>
+        <f>IF(X5=C5,1,0)</f>
         <v>0</v>
       </c>
       <c r="X5" t="s">
@@ -1110,7 +1110,7 @@
         <v>29</v>
       </c>
       <c r="W6">
-        <f t="shared" si="0"/>
+        <f>IF(X6=C6,1,0)</f>
         <v>0</v>
       </c>
       <c r="X6" t="s">
@@ -1122,7 +1122,7 @@
         <v>43135</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B58" si="1">B6-1</f>
+        <f t="shared" ref="B7:B58" si="0">B6-1</f>
         <v>52</v>
       </c>
       <c r="C7" t="s">
@@ -1186,7 +1186,7 @@
         <v>38</v>
       </c>
       <c r="W7">
-        <f t="shared" si="0"/>
+        <f>IF(X7=C7,1,0)</f>
         <v>0</v>
       </c>
       <c r="X7" t="s">
@@ -1198,7 +1198,7 @@
         <v>42771</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="C8" t="s">
@@ -1262,7 +1262,7 @@
         <v>29</v>
       </c>
       <c r="W8">
-        <f t="shared" si="0"/>
+        <f>IF(X8=C8,1,0)</f>
         <v>0</v>
       </c>
       <c r="X8" t="s">
@@ -1274,7 +1274,7 @@
         <v>42407</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C9" t="s">
@@ -1338,7 +1338,7 @@
         <v>29</v>
       </c>
       <c r="W9">
-        <f t="shared" si="0"/>
+        <f>IF(X9=C9,1,0)</f>
         <v>0</v>
       </c>
       <c r="X9" t="s">
@@ -1350,7 +1350,7 @@
         <v>42036</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C10" t="s">
@@ -1414,7 +1414,7 @@
         <v>29</v>
       </c>
       <c r="W10">
-        <f t="shared" si="0"/>
+        <f>IF(X10=C10,1,0)</f>
         <v>0</v>
       </c>
       <c r="X10" t="s">
@@ -1426,7 +1426,7 @@
         <v>41672</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C11" t="s">
@@ -1490,7 +1490,7 @@
         <v>29</v>
       </c>
       <c r="W11">
-        <f t="shared" si="0"/>
+        <f>IF(X11=C11,1,0)</f>
         <v>1</v>
       </c>
       <c r="X11" t="s">
@@ -1502,7 +1502,7 @@
         <v>41308</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C12" t="s">
@@ -1566,7 +1566,7 @@
         <v>38</v>
       </c>
       <c r="W12">
-        <f t="shared" si="0"/>
+        <f>IF(X12=C12,1,0)</f>
         <v>1</v>
       </c>
       <c r="X12" t="s">
@@ -1578,7 +1578,7 @@
         <v>40944</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="C13" t="s">
@@ -1642,7 +1642,7 @@
         <v>38</v>
       </c>
       <c r="W13">
-        <f t="shared" si="0"/>
+        <f>IF(X13=C13,1,0)</f>
         <v>0</v>
       </c>
       <c r="X13" t="s">
@@ -1654,7 +1654,7 @@
         <v>40580</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C14" t="s">
@@ -1718,7 +1718,7 @@
         <v>38</v>
       </c>
       <c r="W14">
-        <f t="shared" si="0"/>
+        <f>IF(X14=C14,1,0)</f>
         <v>1</v>
       </c>
       <c r="X14" t="s">
@@ -1730,7 +1730,7 @@
         <v>40216</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C15" t="s">
@@ -1794,7 +1794,7 @@
         <v>38</v>
       </c>
       <c r="W15">
-        <f t="shared" si="0"/>
+        <f>IF(X15=C15,1,0)</f>
         <v>1</v>
       </c>
       <c r="X15" t="s">
@@ -1806,7 +1806,7 @@
         <v>39845</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C16" t="s">
@@ -1870,7 +1870,7 @@
         <v>38</v>
       </c>
       <c r="W16">
-        <f t="shared" si="0"/>
+        <f>IF(X16=C16,1,0)</f>
         <v>0</v>
       </c>
       <c r="X16" t="s">
@@ -1882,7 +1882,7 @@
         <v>39481</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C17" t="s">
@@ -1946,7 +1946,7 @@
         <v>29</v>
       </c>
       <c r="W17">
-        <f t="shared" si="0"/>
+        <f>IF(X17=C17,1,0)</f>
         <v>1</v>
       </c>
       <c r="X17" t="s">
@@ -1958,7 +1958,7 @@
         <v>39117</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C18" t="s">
@@ -2022,7 +2022,7 @@
         <v>38</v>
       </c>
       <c r="W18">
-        <f t="shared" si="0"/>
+        <f>IF(X18=C18,1,0)</f>
         <v>0</v>
       </c>
       <c r="X18" t="s">
@@ -2034,7 +2034,7 @@
         <v>38753</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C19" t="s">
@@ -2098,7 +2098,7 @@
         <v>29</v>
       </c>
       <c r="W19">
-        <f t="shared" si="0"/>
+        <f>IF(X19=C19,1,0)</f>
         <v>0</v>
       </c>
       <c r="X19" t="s">
@@ -2110,7 +2110,7 @@
         <v>38389</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C20" t="s">
@@ -2174,7 +2174,7 @@
         <v>29</v>
       </c>
       <c r="W20">
-        <f t="shared" si="0"/>
+        <f>IF(X20=C20,1,0)</f>
         <v>0</v>
       </c>
       <c r="X20" t="s">
@@ -2186,7 +2186,7 @@
         <v>38018</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C21" t="s">
@@ -2250,7 +2250,7 @@
         <v>29</v>
       </c>
       <c r="W21">
-        <f t="shared" si="0"/>
+        <f>IF(X21=C21,1,0)</f>
         <v>0</v>
       </c>
       <c r="X21" t="s">
@@ -2262,7 +2262,7 @@
         <v>37647</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C22" t="s">
@@ -2326,7 +2326,7 @@
         <v>29</v>
       </c>
       <c r="W22">
-        <f t="shared" si="0"/>
+        <f>IF(X22=C22,1,0)</f>
         <v>1</v>
       </c>
       <c r="X22" t="s">
@@ -2338,7 +2338,7 @@
         <v>37290</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C23" t="s">
@@ -2402,7 +2402,7 @@
         <v>38</v>
       </c>
       <c r="W23">
-        <f t="shared" si="0"/>
+        <f>IF(X23=C23,1,0)</f>
         <v>0</v>
       </c>
       <c r="X23" t="s">
@@ -2414,7 +2414,7 @@
         <v>36919</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C24" t="s">
@@ -2478,7 +2478,7 @@
         <v>29</v>
       </c>
       <c r="W24">
-        <f t="shared" si="0"/>
+        <f>IF(X24=C24,1,0)</f>
         <v>0</v>
       </c>
       <c r="X24" t="s">
@@ -2490,7 +2490,7 @@
         <v>36555</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C25" t="s">
@@ -2554,7 +2554,7 @@
         <v>29</v>
       </c>
       <c r="W25">
-        <f t="shared" si="0"/>
+        <f>IF(X25=C25,1,0)</f>
         <v>1</v>
       </c>
       <c r="X25" t="s">
@@ -2566,7 +2566,7 @@
         <v>36191</v>
       </c>
       <c r="B26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C26" t="s">
@@ -2627,7 +2627,7 @@
         <v>29</v>
       </c>
       <c r="W26">
-        <f t="shared" si="0"/>
+        <f>IF(X26=C26,1,0)</f>
         <v>0</v>
       </c>
       <c r="X26" t="s">
@@ -2639,7 +2639,7 @@
         <v>35820</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C27" t="s">
@@ -2700,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="W27">
-        <f t="shared" si="0"/>
+        <f>IF(X27=C27,1,0)</f>
         <v>0</v>
       </c>
       <c r="X27" t="s">
@@ -2712,7 +2712,7 @@
         <v>35456</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C28" t="s">
@@ -2773,7 +2773,7 @@
         <v>38</v>
       </c>
       <c r="W28">
-        <f t="shared" si="0"/>
+        <f>IF(X28=C28,1,0)</f>
         <v>0</v>
       </c>
       <c r="X28" t="s">
@@ -2785,7 +2785,7 @@
         <v>35092</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C29" t="s">
@@ -2846,7 +2846,7 @@
         <v>29</v>
       </c>
       <c r="W29">
-        <f t="shared" si="0"/>
+        <f>IF(X29=C29,1,0)</f>
         <v>1</v>
       </c>
       <c r="X29" t="s">
@@ -2858,7 +2858,7 @@
         <v>34728</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -2919,7 +2919,7 @@
         <v>38</v>
       </c>
       <c r="W30">
-        <f t="shared" si="0"/>
+        <f>IF(X30=C30,1,0)</f>
         <v>1</v>
       </c>
       <c r="X30" t="s">
@@ -2931,7 +2931,7 @@
         <v>34364</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C31" t="s">
@@ -2995,7 +2995,7 @@
         <v>29</v>
       </c>
       <c r="W31">
-        <f t="shared" si="0"/>
+        <f>IF(X31=C31,1,0)</f>
         <v>1</v>
       </c>
       <c r="X31" t="s">
@@ -3007,7 +3007,7 @@
         <v>34000</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C32" t="s">
@@ -3068,7 +3068,7 @@
         <v>38</v>
       </c>
       <c r="W32">
-        <f t="shared" si="0"/>
+        <f>IF(X32=C32,1,0)</f>
         <v>0</v>
       </c>
       <c r="X32" t="s">
@@ -3080,7 +3080,7 @@
         <v>33629</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C33" t="s">
@@ -3141,7 +3141,7 @@
         <v>38</v>
       </c>
       <c r="W33">
-        <f t="shared" si="0"/>
+        <f>IF(X33=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="X33" t="s">
@@ -3153,7 +3153,7 @@
         <v>33265</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C34" t="s">
@@ -3217,7 +3217,7 @@
         <v>38</v>
       </c>
       <c r="W34">
-        <f t="shared" si="0"/>
+        <f>IF(X34=C34,1,0)</f>
         <v>0</v>
       </c>
       <c r="X34" t="s">
@@ -3229,7 +3229,7 @@
         <v>32901</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C35" t="s">
@@ -3293,7 +3293,7 @@
         <v>38</v>
       </c>
       <c r="W35">
-        <f t="shared" si="0"/>
+        <f>IF(X35=C35,1,0)</f>
         <v>0</v>
       </c>
       <c r="X35" t="s">
@@ -3305,7 +3305,7 @@
         <v>32530</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C36" t="s">
@@ -3369,7 +3369,7 @@
         <v>29</v>
       </c>
       <c r="W36">
-        <f t="shared" si="0"/>
+        <f>IF(X36=C36,1,0)</f>
         <v>1</v>
       </c>
       <c r="X36" t="s">
@@ -3381,7 +3381,7 @@
         <v>32173</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C37" t="s">
@@ -3445,7 +3445,7 @@
         <v>38</v>
       </c>
       <c r="W37">
-        <f t="shared" ref="W37:W68" si="2">IF(X37=C37,1,0)</f>
+        <f>IF(X37=C37,1,0)</f>
         <v>1</v>
       </c>
       <c r="X37" t="s">
@@ -3457,7 +3457,7 @@
         <v>31802</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C38" t="s">
@@ -3521,7 +3521,7 @@
         <v>29</v>
       </c>
       <c r="W38">
-        <f t="shared" si="2"/>
+        <f>IF(X38=C38,1,0)</f>
         <v>0</v>
       </c>
       <c r="X38" t="s">
@@ -3533,7 +3533,7 @@
         <v>31438</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C39" t="s">
@@ -3597,7 +3597,7 @@
         <v>29</v>
       </c>
       <c r="W39">
-        <f t="shared" si="2"/>
+        <f>IF(X39=C39,1,0)</f>
         <v>1</v>
       </c>
       <c r="X39" t="s">
@@ -3609,7 +3609,7 @@
         <v>31067</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C40" t="s">
@@ -3673,7 +3673,7 @@
         <v>29</v>
       </c>
       <c r="W40">
-        <f t="shared" si="2"/>
+        <f>IF(X40=C40,1,0)</f>
         <v>1</v>
       </c>
       <c r="X40" t="s">
@@ -3685,7 +3685,7 @@
         <v>30703</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C41" t="s">
@@ -3749,7 +3749,7 @@
         <v>38</v>
       </c>
       <c r="W41">
-        <f t="shared" si="2"/>
+        <f>IF(X41=C41,1,0)</f>
         <v>1</v>
       </c>
       <c r="X41" t="s">
@@ -3761,7 +3761,7 @@
         <v>30346</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C42" t="s">
@@ -3822,7 +3822,7 @@
         <v>29</v>
       </c>
       <c r="W42">
-        <f t="shared" si="2"/>
+        <f>IF(X42=C42,1,0)</f>
         <v>0</v>
       </c>
       <c r="X42" t="s">
@@ -3834,7 +3834,7 @@
         <v>29975</v>
       </c>
       <c r="B43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C43" t="s">
@@ -3895,7 +3895,7 @@
         <v>29</v>
       </c>
       <c r="W43">
-        <f t="shared" si="2"/>
+        <f>IF(X43=C43,1,0)</f>
         <v>1</v>
       </c>
       <c r="X43" t="s">
@@ -3907,7 +3907,7 @@
         <v>29611</v>
       </c>
       <c r="B44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C44" t="s">
@@ -3968,7 +3968,7 @@
         <v>29</v>
       </c>
       <c r="W44">
-        <f t="shared" si="2"/>
+        <f>IF(X44=C44,1,0)</f>
         <v>0</v>
       </c>
       <c r="X44" t="s">
@@ -3980,7 +3980,7 @@
         <v>29240</v>
       </c>
       <c r="B45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C45" t="s">
@@ -4041,7 +4041,7 @@
         <v>38</v>
       </c>
       <c r="W45">
-        <f t="shared" si="2"/>
+        <f>IF(X45=C45,1,0)</f>
         <v>0</v>
       </c>
       <c r="X45" t="s">
@@ -4053,7 +4053,7 @@
         <v>28876</v>
       </c>
       <c r="B46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C46" t="s">
@@ -4114,7 +4114,7 @@
         <v>38</v>
       </c>
       <c r="W46">
-        <f t="shared" si="2"/>
+        <f>IF(X46=C46,1,0)</f>
         <v>0</v>
       </c>
       <c r="X46" t="s">
@@ -4126,7 +4126,7 @@
         <v>28505</v>
       </c>
       <c r="B47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C47" t="s">
@@ -4187,7 +4187,7 @@
         <v>38</v>
       </c>
       <c r="W47">
-        <f t="shared" si="2"/>
+        <f>IF(X47=C47,1,0)</f>
         <v>1</v>
       </c>
       <c r="X47" t="s">
@@ -4199,7 +4199,7 @@
         <v>28134</v>
       </c>
       <c r="B48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C48" t="s">
@@ -4260,7 +4260,7 @@
         <v>29</v>
       </c>
       <c r="W48">
-        <f t="shared" si="2"/>
+        <f>IF(X48=C48,1,0)</f>
         <v>1</v>
       </c>
       <c r="X48" t="s">
@@ -4272,7 +4272,7 @@
         <v>27777</v>
       </c>
       <c r="B49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C49" t="s">
@@ -4333,7 +4333,7 @@
         <v>38</v>
       </c>
       <c r="W49">
-        <f t="shared" si="2"/>
+        <f>IF(X49=C49,1,0)</f>
         <v>0</v>
       </c>
       <c r="X49" t="s">
@@ -4345,7 +4345,7 @@
         <v>27406</v>
       </c>
       <c r="B50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C50" t="s">
@@ -4406,7 +4406,7 @@
         <v>29</v>
       </c>
       <c r="W50">
-        <f t="shared" si="2"/>
+        <f>IF(X50=C50,1,0)</f>
         <v>1</v>
       </c>
       <c r="X50" t="s">
@@ -4418,7 +4418,7 @@
         <v>27042</v>
       </c>
       <c r="B51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C51" t="s">
@@ -4479,7 +4479,7 @@
         <v>38</v>
       </c>
       <c r="W51">
-        <f t="shared" si="2"/>
+        <f>IF(X51=C51,1,0)</f>
         <v>1</v>
       </c>
       <c r="X51" t="s">
@@ -4491,7 +4491,7 @@
         <v>26678</v>
       </c>
       <c r="B52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C52" t="s">
@@ -4552,7 +4552,7 @@
         <v>38</v>
       </c>
       <c r="W52">
-        <f t="shared" si="2"/>
+        <f>IF(X52=C52,1,0)</f>
         <v>1</v>
       </c>
       <c r="X52" t="s">
@@ -4564,7 +4564,7 @@
         <v>26314</v>
       </c>
       <c r="B53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C53" t="s">
@@ -4625,7 +4625,7 @@
         <v>38</v>
       </c>
       <c r="W53">
-        <f t="shared" si="2"/>
+        <f>IF(X53=C53,1,0)</f>
         <v>0</v>
       </c>
       <c r="X53" t="s">
@@ -4637,7 +4637,7 @@
         <v>25950</v>
       </c>
       <c r="B54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C54" t="s">
@@ -4698,7 +4698,7 @@
         <v>29</v>
       </c>
       <c r="W54">
-        <f t="shared" si="2"/>
+        <f>IF(X54=C54,1,0)</f>
         <v>0</v>
       </c>
       <c r="X54" t="s">
@@ -4710,7 +4710,7 @@
         <v>25579</v>
       </c>
       <c r="B55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C55" t="s">
@@ -4771,7 +4771,7 @@
         <v>29</v>
       </c>
       <c r="W55">
-        <f t="shared" si="2"/>
+        <f>IF(X55=C55,1,0)</f>
         <v>0</v>
       </c>
       <c r="X55" t="s">
@@ -4783,7 +4783,7 @@
         <v>25215</v>
       </c>
       <c r="B56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C56" t="s">
@@ -4844,7 +4844,7 @@
         <v>38</v>
       </c>
       <c r="W56">
-        <f t="shared" si="2"/>
+        <f>IF(X56=C56,1,0)</f>
         <v>1</v>
       </c>
       <c r="X56" t="s">
@@ -4856,7 +4856,7 @@
         <v>24851</v>
       </c>
       <c r="B57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C57" t="s">
@@ -4917,7 +4917,7 @@
         <v>29</v>
       </c>
       <c r="W57">
-        <f t="shared" si="2"/>
+        <f>IF(X57=C57,1,0)</f>
         <v>0</v>
       </c>
       <c r="X57" t="s">
@@ -4929,7 +4929,7 @@
         <v>24487</v>
       </c>
       <c r="B58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C58" t="s">
@@ -4990,7 +4990,7 @@
         <v>38</v>
       </c>
       <c r="W58">
-        <f t="shared" si="2"/>
+        <f>IF(X58=C58,1,0)</f>
         <v>1</v>
       </c>
       <c r="X58" t="s">
@@ -5065,7 +5065,7 @@
         <v>29</v>
       </c>
       <c r="W59">
-        <f t="shared" si="2"/>
+        <f>IF(X59=C59,1,0)</f>
         <v>1</v>
       </c>
       <c r="X59" t="s">
@@ -5141,7 +5141,7 @@
         <v>29</v>
       </c>
       <c r="W60">
-        <f t="shared" si="2"/>
+        <f>IF(X60=C60,1,0)</f>
         <v>1</v>
       </c>
       <c r="X60" t="s">
@@ -5153,7 +5153,7 @@
         <v>43135</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:B112" si="3">B60-1</f>
+        <f t="shared" ref="B61:B112" si="1">B60-1</f>
         <v>52</v>
       </c>
       <c r="C61" t="s">
@@ -5217,7 +5217,7 @@
         <v>38</v>
       </c>
       <c r="W61">
-        <f t="shared" si="2"/>
+        <f>IF(X61=C61,1,0)</f>
         <v>1</v>
       </c>
       <c r="X61" t="s">
@@ -5229,7 +5229,7 @@
         <v>42771</v>
       </c>
       <c r="B62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C62" t="s">
@@ -5293,7 +5293,7 @@
         <v>29</v>
       </c>
       <c r="W62">
-        <f t="shared" si="2"/>
+        <f>IF(X62=C62,1,0)</f>
         <v>1</v>
       </c>
       <c r="X62" t="s">
@@ -5306,7 +5306,7 @@
         <v>42407</v>
       </c>
       <c r="B63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C63" t="s">
@@ -5370,7 +5370,7 @@
         <v>29</v>
       </c>
       <c r="W63">
-        <f t="shared" si="2"/>
+        <f>IF(X63=C63,1,0)</f>
         <v>1</v>
       </c>
       <c r="X63" t="s">
@@ -5382,7 +5382,7 @@
         <v>42036</v>
       </c>
       <c r="B64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="C64" t="s">
@@ -5446,7 +5446,7 @@
         <v>29</v>
       </c>
       <c r="W64">
-        <f t="shared" si="2"/>
+        <f>IF(X64=C64,1,0)</f>
         <v>1</v>
       </c>
       <c r="X64" t="s">
@@ -5458,7 +5458,7 @@
         <v>41672</v>
       </c>
       <c r="B65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C65" t="s">
@@ -5522,7 +5522,7 @@
         <v>29</v>
       </c>
       <c r="W65">
-        <f t="shared" si="2"/>
+        <f>IF(X65=C65,1,0)</f>
         <v>0</v>
       </c>
       <c r="X65" t="s">
@@ -5534,7 +5534,7 @@
         <v>41308</v>
       </c>
       <c r="B66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C66" t="s">
@@ -5598,7 +5598,7 @@
         <v>38</v>
       </c>
       <c r="W66">
-        <f t="shared" si="2"/>
+        <f>IF(X66=C66,1,0)</f>
         <v>0</v>
       </c>
       <c r="X66" t="s">
@@ -5610,7 +5610,7 @@
         <v>40944</v>
       </c>
       <c r="B67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="C67" t="s">
@@ -5674,7 +5674,7 @@
         <v>38</v>
       </c>
       <c r="W67">
-        <f t="shared" si="2"/>
+        <f>IF(X67=C67,1,0)</f>
         <v>1</v>
       </c>
       <c r="X67" t="s">
@@ -5686,7 +5686,7 @@
         <v>40580</v>
       </c>
       <c r="B68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C68" t="s">
@@ -5750,7 +5750,7 @@
         <v>38</v>
       </c>
       <c r="W68">
-        <f t="shared" si="2"/>
+        <f>IF(X68=C68,1,0)</f>
         <v>0</v>
       </c>
       <c r="X68" t="s">
@@ -5762,7 +5762,7 @@
         <v>40216</v>
       </c>
       <c r="B69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C69" t="s">
@@ -5826,7 +5826,7 @@
         <v>38</v>
       </c>
       <c r="W69">
-        <f t="shared" ref="W69:W100" si="4">IF(X69=C69,1,0)</f>
+        <f>IF(X69=C69,1,0)</f>
         <v>0</v>
       </c>
       <c r="X69" t="s">
@@ -5838,7 +5838,7 @@
         <v>39845</v>
       </c>
       <c r="B70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="C70" t="s">
@@ -5902,7 +5902,7 @@
         <v>38</v>
       </c>
       <c r="W70">
-        <f t="shared" si="4"/>
+        <f>IF(X70=C70,1,0)</f>
         <v>1</v>
       </c>
       <c r="X70" t="s">
@@ -5914,7 +5914,7 @@
         <v>39481</v>
       </c>
       <c r="B71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="C71" t="s">
@@ -5978,7 +5978,7 @@
         <v>29</v>
       </c>
       <c r="W71">
-        <f t="shared" si="4"/>
+        <f>IF(X71=C71,1,0)</f>
         <v>0</v>
       </c>
       <c r="X71" t="s">
@@ -5990,7 +5990,7 @@
         <v>39117</v>
       </c>
       <c r="B72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="C72" t="s">
@@ -6054,7 +6054,7 @@
         <v>38</v>
       </c>
       <c r="W72">
-        <f t="shared" si="4"/>
+        <f>IF(X72=C72,1,0)</f>
         <v>1</v>
       </c>
       <c r="X72" t="s">
@@ -6066,7 +6066,7 @@
         <v>38753</v>
       </c>
       <c r="B73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C73" t="s">
@@ -6130,7 +6130,7 @@
         <v>29</v>
       </c>
       <c r="W73">
-        <f t="shared" si="4"/>
+        <f>IF(X73=C73,1,0)</f>
         <v>1</v>
       </c>
       <c r="X73" t="s">
@@ -6142,7 +6142,7 @@
         <v>38389</v>
       </c>
       <c r="B74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C74" t="s">
@@ -6206,7 +6206,7 @@
         <v>29</v>
       </c>
       <c r="W74">
-        <f t="shared" si="4"/>
+        <f>IF(X74=C74,1,0)</f>
         <v>1</v>
       </c>
       <c r="X74" t="s">
@@ -6218,7 +6218,7 @@
         <v>38018</v>
       </c>
       <c r="B75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C75" t="s">
@@ -6282,7 +6282,7 @@
         <v>29</v>
       </c>
       <c r="W75">
-        <f t="shared" si="4"/>
+        <f>IF(X75=C75,1,0)</f>
         <v>1</v>
       </c>
       <c r="X75" t="s">
@@ -6294,7 +6294,7 @@
         <v>37647</v>
       </c>
       <c r="B76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C76" t="s">
@@ -6358,7 +6358,7 @@
         <v>29</v>
       </c>
       <c r="W76">
-        <f t="shared" si="4"/>
+        <f>IF(X76=C76,1,0)</f>
         <v>0</v>
       </c>
       <c r="X76" t="s">
@@ -6370,7 +6370,7 @@
         <v>37290</v>
       </c>
       <c r="B77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C77" t="s">
@@ -6434,7 +6434,7 @@
         <v>38</v>
       </c>
       <c r="W77">
-        <f t="shared" si="4"/>
+        <f>IF(X77=C77,1,0)</f>
         <v>1</v>
       </c>
       <c r="X77" t="s">
@@ -6446,7 +6446,7 @@
         <v>36919</v>
       </c>
       <c r="B78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C78" t="s">
@@ -6510,7 +6510,7 @@
         <v>29</v>
       </c>
       <c r="W78">
-        <f t="shared" si="4"/>
+        <f>IF(X78=C78,1,0)</f>
         <v>1</v>
       </c>
       <c r="X78" t="s">
@@ -6522,7 +6522,7 @@
         <v>36555</v>
       </c>
       <c r="B79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C79" t="s">
@@ -6586,7 +6586,7 @@
         <v>29</v>
       </c>
       <c r="W79">
-        <f t="shared" si="4"/>
+        <f>IF(X79=C79,1,0)</f>
         <v>0</v>
       </c>
       <c r="X79" t="s">
@@ -6598,7 +6598,7 @@
         <v>36191</v>
       </c>
       <c r="B80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C80" t="s">
@@ -6659,7 +6659,7 @@
         <v>29</v>
       </c>
       <c r="W80">
-        <f t="shared" si="4"/>
+        <f>IF(X80=C80,1,0)</f>
         <v>1</v>
       </c>
       <c r="X80" t="s">
@@ -6671,7 +6671,7 @@
         <v>35820</v>
       </c>
       <c r="B81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C81" t="s">
@@ -6732,7 +6732,7 @@
         <v>29</v>
       </c>
       <c r="W81">
-        <f t="shared" si="4"/>
+        <f>IF(X81=C81,1,0)</f>
         <v>1</v>
       </c>
       <c r="X81" t="s">
@@ -6744,7 +6744,7 @@
         <v>35456</v>
       </c>
       <c r="B82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C82" t="s">
@@ -6805,7 +6805,7 @@
         <v>38</v>
       </c>
       <c r="W82">
-        <f t="shared" si="4"/>
+        <f>IF(X82=C82,1,0)</f>
         <v>1</v>
       </c>
       <c r="X82" t="s">
@@ -6817,7 +6817,7 @@
         <v>35092</v>
       </c>
       <c r="B83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C83" t="s">
@@ -6878,7 +6878,7 @@
         <v>29</v>
       </c>
       <c r="W83">
-        <f t="shared" si="4"/>
+        <f>IF(X83=C83,1,0)</f>
         <v>0</v>
       </c>
       <c r="X83" t="s">
@@ -6890,7 +6890,7 @@
         <v>34728</v>
       </c>
       <c r="B84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C84" t="s">
@@ -6951,7 +6951,7 @@
         <v>38</v>
       </c>
       <c r="W84">
-        <f t="shared" si="4"/>
+        <f>IF(X84=C84,1,0)</f>
         <v>0</v>
       </c>
       <c r="X84" t="s">
@@ -6963,7 +6963,7 @@
         <v>34364</v>
       </c>
       <c r="B85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C85" t="s">
@@ -7027,7 +7027,7 @@
         <v>29</v>
       </c>
       <c r="W85">
-        <f t="shared" si="4"/>
+        <f>IF(X85=C85,1,0)</f>
         <v>0</v>
       </c>
       <c r="X85" t="s">
@@ -7039,7 +7039,7 @@
         <v>34000</v>
       </c>
       <c r="B86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C86" t="s">
@@ -7100,7 +7100,7 @@
         <v>38</v>
       </c>
       <c r="W86">
-        <f t="shared" si="4"/>
+        <f>IF(X86=C86,1,0)</f>
         <v>1</v>
       </c>
       <c r="X86" t="s">
@@ -7112,7 +7112,7 @@
         <v>33629</v>
       </c>
       <c r="B87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C87" t="s">
@@ -7173,7 +7173,7 @@
         <v>38</v>
       </c>
       <c r="W87">
-        <f t="shared" si="4"/>
+        <f>IF(X87=C87,1,0)</f>
         <v>0</v>
       </c>
       <c r="X87" t="s">
@@ -7185,7 +7185,7 @@
         <v>33265</v>
       </c>
       <c r="B88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C88" t="s">
@@ -7249,7 +7249,7 @@
         <v>38</v>
       </c>
       <c r="W88">
-        <f t="shared" si="4"/>
+        <f>IF(X88=C88,1,0)</f>
         <v>1</v>
       </c>
       <c r="X88" t="s">
@@ -7261,7 +7261,7 @@
         <v>32901</v>
       </c>
       <c r="B89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C89" t="s">
@@ -7325,7 +7325,7 @@
         <v>38</v>
       </c>
       <c r="W89">
-        <f t="shared" si="4"/>
+        <f>IF(X89=C89,1,0)</f>
         <v>1</v>
       </c>
       <c r="X89" t="s">
@@ -7337,7 +7337,7 @@
         <v>32530</v>
       </c>
       <c r="B90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C90" t="s">
@@ -7401,7 +7401,7 @@
         <v>29</v>
       </c>
       <c r="W90">
-        <f t="shared" si="4"/>
+        <f>IF(X90=C90,1,0)</f>
         <v>0</v>
       </c>
       <c r="X90" t="s">
@@ -7413,7 +7413,7 @@
         <v>32173</v>
       </c>
       <c r="B91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C91" t="s">
@@ -7477,7 +7477,7 @@
         <v>38</v>
       </c>
       <c r="W91">
-        <f t="shared" si="4"/>
+        <f>IF(X91=C91,1,0)</f>
         <v>0</v>
       </c>
       <c r="X91" t="s">
@@ -7489,7 +7489,7 @@
         <v>31802</v>
       </c>
       <c r="B92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C92" t="s">
@@ -7553,7 +7553,7 @@
         <v>29</v>
       </c>
       <c r="W92">
-        <f t="shared" si="4"/>
+        <f>IF(X92=C92,1,0)</f>
         <v>1</v>
       </c>
       <c r="X92" t="s">
@@ -7565,7 +7565,7 @@
         <v>31438</v>
       </c>
       <c r="B93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C93" t="s">
@@ -7629,7 +7629,7 @@
         <v>29</v>
       </c>
       <c r="W93">
-        <f t="shared" si="4"/>
+        <f>IF(X93=C93,1,0)</f>
         <v>0</v>
       </c>
       <c r="X93" t="s">
@@ -7641,7 +7641,7 @@
         <v>31067</v>
       </c>
       <c r="B94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C94" t="s">
@@ -7705,7 +7705,7 @@
         <v>29</v>
       </c>
       <c r="W94">
-        <f t="shared" si="4"/>
+        <f>IF(X94=C94,1,0)</f>
         <v>0</v>
       </c>
       <c r="X94" t="s">
@@ -7717,7 +7717,7 @@
         <v>30703</v>
       </c>
       <c r="B95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C95" t="s">
@@ -7781,7 +7781,7 @@
         <v>38</v>
       </c>
       <c r="W95">
-        <f t="shared" si="4"/>
+        <f>IF(X95=C95,1,0)</f>
         <v>0</v>
       </c>
       <c r="X95" t="s">
@@ -7793,7 +7793,7 @@
         <v>30346</v>
       </c>
       <c r="B96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C96" t="s">
@@ -7854,7 +7854,7 @@
         <v>29</v>
       </c>
       <c r="W96">
-        <f t="shared" si="4"/>
+        <f>IF(X96=C96,1,0)</f>
         <v>1</v>
       </c>
       <c r="X96" t="s">
@@ -7866,7 +7866,7 @@
         <v>29975</v>
       </c>
       <c r="B97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C97" t="s">
@@ -7927,7 +7927,7 @@
         <v>29</v>
       </c>
       <c r="W97">
-        <f t="shared" si="4"/>
+        <f>IF(X97=C97,1,0)</f>
         <v>0</v>
       </c>
       <c r="X97" t="s">
@@ -7939,7 +7939,7 @@
         <v>29611</v>
       </c>
       <c r="B98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C98" t="s">
@@ -8000,7 +8000,7 @@
         <v>29</v>
       </c>
       <c r="W98">
-        <f t="shared" si="4"/>
+        <f>IF(X98=C98,1,0)</f>
         <v>1</v>
       </c>
       <c r="X98" t="s">
@@ -8012,7 +8012,7 @@
         <v>29240</v>
       </c>
       <c r="B99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C99" t="s">
@@ -8073,7 +8073,7 @@
         <v>38</v>
       </c>
       <c r="W99">
-        <f t="shared" si="4"/>
+        <f>IF(X99=C99,1,0)</f>
         <v>1</v>
       </c>
       <c r="X99" t="s">
@@ -8085,7 +8085,7 @@
         <v>28876</v>
       </c>
       <c r="B100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C100" t="s">
@@ -8146,7 +8146,7 @@
         <v>38</v>
       </c>
       <c r="W100">
-        <f t="shared" si="4"/>
+        <f>IF(X100=C100,1,0)</f>
         <v>1</v>
       </c>
       <c r="X100" t="s">
@@ -8158,7 +8158,7 @@
         <v>28505</v>
       </c>
       <c r="B101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C101" t="s">
@@ -8219,7 +8219,7 @@
         <v>38</v>
       </c>
       <c r="W101">
-        <f t="shared" ref="W101:W132" si="5">IF(X101=C101,1,0)</f>
+        <f>IF(X101=C101,1,0)</f>
         <v>0</v>
       </c>
       <c r="X101" t="s">
@@ -8231,7 +8231,7 @@
         <v>28134</v>
       </c>
       <c r="B102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C102" t="s">
@@ -8292,7 +8292,7 @@
         <v>29</v>
       </c>
       <c r="W102">
-        <f t="shared" si="5"/>
+        <f>IF(X102=C102,1,0)</f>
         <v>0</v>
       </c>
       <c r="X102" t="s">
@@ -8304,7 +8304,7 @@
         <v>27777</v>
       </c>
       <c r="B103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C103" t="s">
@@ -8365,7 +8365,7 @@
         <v>38</v>
       </c>
       <c r="W103">
-        <f t="shared" si="5"/>
+        <f>IF(X103=C103,1,0)</f>
         <v>1</v>
       </c>
       <c r="X103" t="s">
@@ -8377,7 +8377,7 @@
         <v>27406</v>
       </c>
       <c r="B104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C104" t="s">
@@ -8438,7 +8438,7 @@
         <v>29</v>
       </c>
       <c r="W104">
-        <f t="shared" si="5"/>
+        <f>IF(X104=C104,1,0)</f>
         <v>0</v>
       </c>
       <c r="X104" t="s">
@@ -8450,7 +8450,7 @@
         <v>27042</v>
       </c>
       <c r="B105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C105" t="s">
@@ -8511,7 +8511,7 @@
         <v>38</v>
       </c>
       <c r="W105">
-        <f t="shared" si="5"/>
+        <f>IF(X105=C105,1,0)</f>
         <v>0</v>
       </c>
       <c r="X105" t="s">
@@ -8523,7 +8523,7 @@
         <v>26678</v>
       </c>
       <c r="B106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C106" t="s">
@@ -8584,7 +8584,7 @@
         <v>38</v>
       </c>
       <c r="W106">
-        <f t="shared" si="5"/>
+        <f>IF(X106=C106,1,0)</f>
         <v>0</v>
       </c>
       <c r="X106" t="s">
@@ -8596,7 +8596,7 @@
         <v>26314</v>
       </c>
       <c r="B107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C107" t="s">
@@ -8657,7 +8657,7 @@
         <v>38</v>
       </c>
       <c r="W107">
-        <f t="shared" si="5"/>
+        <f>IF(X107=C107,1,0)</f>
         <v>1</v>
       </c>
       <c r="X107" t="s">
@@ -8669,7 +8669,7 @@
         <v>25950</v>
       </c>
       <c r="B108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C108" t="s">
@@ -8730,7 +8730,7 @@
         <v>29</v>
       </c>
       <c r="W108">
-        <f t="shared" si="5"/>
+        <f>IF(X108=C108,1,0)</f>
         <v>1</v>
       </c>
       <c r="X108" t="s">
@@ -8742,7 +8742,7 @@
         <v>25579</v>
       </c>
       <c r="B109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C109" t="s">
@@ -8803,7 +8803,7 @@
         <v>29</v>
       </c>
       <c r="W109">
-        <f t="shared" si="5"/>
+        <f>IF(X109=C109,1,0)</f>
         <v>1</v>
       </c>
       <c r="X109" t="s">
@@ -8815,7 +8815,7 @@
         <v>25215</v>
       </c>
       <c r="B110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C110" t="s">
@@ -8876,7 +8876,7 @@
         <v>38</v>
       </c>
       <c r="W110">
-        <f t="shared" si="5"/>
+        <f>IF(X110=C110,1,0)</f>
         <v>0</v>
       </c>
       <c r="X110" t="s">
@@ -8888,7 +8888,7 @@
         <v>24851</v>
       </c>
       <c r="B111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C111" t="s">
@@ -8949,7 +8949,7 @@
         <v>29</v>
       </c>
       <c r="W111">
-        <f t="shared" si="5"/>
+        <f>IF(X111=C111,1,0)</f>
         <v>1</v>
       </c>
       <c r="X111" t="s">
@@ -8961,7 +8961,7 @@
         <v>24487</v>
       </c>
       <c r="B112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C112" t="s">
@@ -9022,7 +9022,7 @@
         <v>38</v>
       </c>
       <c r="W112">
-        <f t="shared" si="5"/>
+        <f>IF(X112=C112,1,0)</f>
         <v>0</v>
       </c>
       <c r="X112" t="s">
